--- a/dataExcel/【AK-47 _ 丛林涂装 (略有磨损)】悠悠有品近1个月-总览.xlsx
+++ b/dataExcel/【AK-47 _ 丛林涂装 (略有磨损)】悠悠有品近1个月-总览.xlsx
@@ -431,161 +431,161 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2023-09-17 16:59:35</v>
+        <v>2023-09-18 23:56:48</v>
       </c>
       <c r="B8">
-        <v>96</v>
+        <v>97.9</v>
       </c>
       <c r="C8">
-        <v>105.95</v>
+        <v>109.2</v>
       </c>
       <c r="D8">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E8">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="F8">
         <v>0.28</v>
       </c>
       <c r="G8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H8">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2023-09-17 22:07:46</v>
+        <v>2023-09-19 05:10:04</v>
       </c>
       <c r="B9">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C9">
-        <v>105.95</v>
+        <v>110.83</v>
       </c>
       <c r="D9">
         <v>58</v>
       </c>
       <c r="E9">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="F9">
         <v>0.28</v>
       </c>
       <c r="G9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H9">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2023-09-18 03:19:51</v>
+        <v>2023-09-19 10:17:54</v>
       </c>
       <c r="B10">
-        <v>98</v>
+        <v>97.9</v>
       </c>
       <c r="C10">
-        <v>109.2</v>
+        <v>110.83</v>
       </c>
       <c r="D10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E10">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="F10">
         <v>0.28</v>
       </c>
       <c r="G10">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H10">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2023-09-18 08:26:41</v>
+        <v>2023-09-19 15:27:06</v>
       </c>
       <c r="B11">
-        <v>98</v>
+        <v>97.9</v>
       </c>
       <c r="C11">
-        <v>109.2</v>
+        <v>110.83</v>
       </c>
       <c r="D11">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E11">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="F11">
         <v>0.28</v>
       </c>
       <c r="G11">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H11">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2023-09-18 13:36:41</v>
+        <v>2023-09-19 20:37:04</v>
       </c>
       <c r="B12">
-        <v>98</v>
+        <v>97.9</v>
       </c>
       <c r="C12">
-        <v>109.2</v>
+        <v>110.83</v>
       </c>
       <c r="D12">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E12">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="F12">
         <v>0.28</v>
       </c>
       <c r="G12">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H12">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2023-09-18 18:46:52</v>
+        <v>2023-09-20 01:47:03</v>
       </c>
       <c r="B13">
-        <v>97.8</v>
+        <v>97.9</v>
       </c>
       <c r="C13">
-        <v>109.2</v>
+        <v>110.83</v>
       </c>
       <c r="D13">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E13">
         <v>0.36</v>
@@ -597,24 +597,24 @@
         <v>25</v>
       </c>
       <c r="H13">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2023-09-18 23:56:48</v>
+        <v>2023-09-20 06:57:01</v>
       </c>
       <c r="B14">
         <v>97.9</v>
       </c>
       <c r="C14">
-        <v>109.2</v>
+        <v>110.83</v>
       </c>
       <c r="D14">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14">
         <v>0.36</v>
@@ -626,152 +626,152 @@
         <v>25</v>
       </c>
       <c r="H14">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I14">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2023-09-19 05:10:04</v>
+        <v>2023-09-20 12:07:00</v>
       </c>
       <c r="B15">
-        <v>98</v>
+        <v>95.9</v>
       </c>
       <c r="C15">
         <v>110.83</v>
       </c>
       <c r="D15">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E15">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="F15">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="G15">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H15">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I15">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2023-09-19 10:17:54</v>
+        <v>2023-09-20 17:16:58</v>
       </c>
       <c r="B16">
-        <v>97.9</v>
+        <v>95.9</v>
       </c>
       <c r="C16">
         <v>110.83</v>
       </c>
       <c r="D16">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E16">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="F16">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="G16">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H16">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I16">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2023-09-19 15:27:06</v>
+        <v>2023-09-20 22:26:57</v>
       </c>
       <c r="B17">
-        <v>97.9</v>
+        <v>96</v>
       </c>
       <c r="C17">
         <v>110.83</v>
       </c>
       <c r="D17">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E17">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="F17">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="G17">
         <v>26</v>
       </c>
       <c r="H17">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I17">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2023-09-19 20:37:04</v>
+        <v>2023-09-21 03:36:56</v>
       </c>
       <c r="B18">
-        <v>97.9</v>
+        <v>96</v>
       </c>
       <c r="C18">
         <v>110.83</v>
       </c>
       <c r="D18">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E18">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="F18">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="G18">
         <v>26</v>
       </c>
       <c r="H18">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="I18">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2023-09-20 01:47:03</v>
+        <v>2023-09-21 08:42:28</v>
       </c>
       <c r="B19">
-        <v>97.9</v>
+        <v>96</v>
       </c>
       <c r="C19">
         <v>110.83</v>
       </c>
       <c r="D19">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E19">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="F19">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="G19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H19">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I19">
         <v>7</v>
@@ -779,10 +779,10 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2023-09-20 06:57:01</v>
+        <v>2023-09-21 13:52:49</v>
       </c>
       <c r="B20">
-        <v>97.9</v>
+        <v>96</v>
       </c>
       <c r="C20">
         <v>110.83</v>
@@ -791,56 +791,56 @@
         <v>58</v>
       </c>
       <c r="E20">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="F20">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="G20">
         <v>25</v>
       </c>
       <c r="H20">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I20">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2023-09-20 12:07:00</v>
+        <v>2023-09-21 19:03:13</v>
       </c>
       <c r="B21">
-        <v>95.9</v>
+        <v>96</v>
       </c>
       <c r="C21">
         <v>110.83</v>
       </c>
       <c r="D21">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E21">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="F21">
         <v>0.25</v>
       </c>
       <c r="G21">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H21">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I21">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2023-09-20 17:16:58</v>
+        <v>2023-09-22 00:12:50</v>
       </c>
       <c r="B22">
-        <v>95.9</v>
+        <v>96</v>
       </c>
       <c r="C22">
         <v>110.83</v>
@@ -849,36 +849,36 @@
         <v>59</v>
       </c>
       <c r="E22">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="F22">
         <v>0.25</v>
       </c>
       <c r="G22">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H22">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I22">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2023-09-20 22:26:57</v>
+        <v>2023-09-22 05:23:20</v>
       </c>
       <c r="B23">
-        <v>96</v>
+        <v>95.9</v>
       </c>
       <c r="C23">
-        <v>110.83</v>
+        <v>104.65</v>
       </c>
       <c r="D23">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E23">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="F23">
         <v>0.25</v>
@@ -887,59 +887,59 @@
         <v>26</v>
       </c>
       <c r="H23">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I23">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2023-09-21 03:36:56</v>
+        <v>2023-09-22 10:32:38</v>
       </c>
       <c r="B24">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C24">
-        <v>110.83</v>
+        <v>104.65</v>
       </c>
       <c r="D24">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E24">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="F24">
         <v>0.25</v>
       </c>
       <c r="G24">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H24">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I24">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2023-09-21 08:42:28</v>
+        <v>2023-09-22 15:44:09</v>
       </c>
       <c r="B25">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C25">
-        <v>110.83</v>
+        <v>104.65</v>
       </c>
       <c r="D25">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E25">
-        <v>0.34</v>
+        <v>0.2</v>
       </c>
       <c r="F25">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="G25">
         <v>26</v>
@@ -948,91 +948,91 @@
         <v>86</v>
       </c>
       <c r="I25">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2023-09-21 13:52:49</v>
+        <v>2023-09-22 20:54:01</v>
       </c>
       <c r="B26">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C26">
-        <v>110.83</v>
+        <v>104.65</v>
       </c>
       <c r="D26">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E26">
-        <v>0.34</v>
+        <v>0.2</v>
       </c>
       <c r="F26">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="G26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H26">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I26">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2023-09-21 19:03:13</v>
+        <v>2023-09-23 02:03:23</v>
       </c>
       <c r="B27">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C27">
-        <v>110.83</v>
+        <v>107.38</v>
       </c>
       <c r="D27">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E27">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="F27">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="G27">
         <v>26</v>
       </c>
       <c r="H27">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I27">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2023-09-22 00:12:50</v>
+        <v>2023-09-23 07:13:32</v>
       </c>
       <c r="B28">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C28">
-        <v>110.83</v>
+        <v>107.38</v>
       </c>
       <c r="D28">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E28">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="F28">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="G28">
         <v>26</v>
       </c>
       <c r="H28">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I28">
         <v>6</v>
@@ -1040,28 +1040,28 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2023-09-22 05:23:20</v>
+        <v>2023-09-23 12:23:12</v>
       </c>
       <c r="B29">
-        <v>95.9</v>
+        <v>93</v>
       </c>
       <c r="C29">
-        <v>104.65</v>
+        <v>107.38</v>
       </c>
       <c r="D29">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E29">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="F29">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="G29">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H29">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I29">
         <v>6</v>
@@ -1069,19 +1069,19 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2023-09-22 10:32:38</v>
+        <v>2023-09-23 17:34:02</v>
       </c>
       <c r="B30">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C30">
-        <v>104.65</v>
+        <v>107.38</v>
       </c>
       <c r="D30">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E30">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="F30">
         <v>0.25</v>
@@ -1090,7 +1090,7 @@
         <v>25</v>
       </c>
       <c r="H30">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I30">
         <v>6</v>
@@ -1098,202 +1098,202 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2023-09-22 15:44:09</v>
+        <v>2023-09-23 22:43:21</v>
       </c>
       <c r="B31">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C31">
-        <v>104.65</v>
+        <v>107.38</v>
       </c>
       <c r="D31">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E31">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="F31">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G31">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H31">
         <v>86</v>
       </c>
       <c r="I31">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2023-09-22 20:54:01</v>
+        <v>2023-09-24 03:53:19</v>
       </c>
       <c r="B32">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C32">
-        <v>104.65</v>
+        <v>115.44</v>
       </c>
       <c r="D32">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E32">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="F32">
-        <v>0.12</v>
+        <v>0.28</v>
       </c>
       <c r="G32">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H32">
         <v>86</v>
       </c>
       <c r="I32">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2023-09-23 02:03:23</v>
+        <v>2023-09-24 09:03:19</v>
       </c>
       <c r="B33">
         <v>93</v>
       </c>
       <c r="C33">
-        <v>107.38</v>
+        <v>115.44</v>
       </c>
       <c r="D33">
         <v>62</v>
       </c>
       <c r="E33">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="F33">
-        <v>0.12</v>
+        <v>0.28</v>
       </c>
       <c r="G33">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H33">
         <v>86</v>
       </c>
       <c r="I33">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2023-09-23 07:13:32</v>
+        <v>2023-09-24 12:41:01</v>
       </c>
       <c r="B34">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C34">
-        <v>107.38</v>
+        <v>115.44</v>
       </c>
       <c r="D34">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E34">
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
       <c r="F34">
-        <v>0.12</v>
+        <v>0.27</v>
       </c>
       <c r="G34">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H34">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I34">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2023-09-23 12:23:12</v>
+        <v>2023-09-24 16:17:25</v>
       </c>
       <c r="B35">
-        <v>93</v>
+        <v>94.5</v>
       </c>
       <c r="C35">
-        <v>107.38</v>
+        <v>115.44</v>
       </c>
       <c r="D35">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E35">
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
       <c r="F35">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="G35">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H35">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I35">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2023-09-23 17:34:02</v>
+        <v>2023-09-24 19:57:31</v>
       </c>
       <c r="B36">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C36">
-        <v>107.38</v>
+        <v>115.44</v>
       </c>
       <c r="D36">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E36">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="F36">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="G36">
         <v>25</v>
       </c>
       <c r="H36">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I36">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>2023-09-23 22:43:21</v>
+        <v>2023-09-24 23:33:16</v>
       </c>
       <c r="B37">
-        <v>93</v>
+        <v>94.9</v>
       </c>
       <c r="C37">
-        <v>107.38</v>
+        <v>115.44</v>
       </c>
       <c r="D37">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E37">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="F37">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="G37">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H37">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I37">
         <v>5</v>
@@ -1301,161 +1301,161 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>2023-09-24 03:53:19</v>
+        <v>2023-09-25 03:10:28</v>
       </c>
       <c r="B38">
-        <v>93</v>
+        <v>94.9</v>
       </c>
       <c r="C38">
-        <v>115.44</v>
+        <v>119.28</v>
       </c>
       <c r="D38">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E38">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="F38">
-        <v>0.28</v>
+        <v>0.15</v>
       </c>
       <c r="G38">
         <v>24</v>
       </c>
       <c r="H38">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I38">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>2023-09-24 09:03:19</v>
+        <v>2023-09-25 03:17:27</v>
       </c>
       <c r="B39">
-        <v>93</v>
+        <v>94.9</v>
       </c>
       <c r="C39">
-        <v>115.44</v>
+        <v>119.28</v>
       </c>
       <c r="D39">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E39">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="F39">
-        <v>0.28</v>
+        <v>0.15</v>
       </c>
       <c r="G39">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H39">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I39">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2023-09-24 12:41:01</v>
+        <v>2023-09-25 06:56:01</v>
       </c>
       <c r="B40">
-        <v>95</v>
+        <v>94.9</v>
       </c>
       <c r="C40">
-        <v>115.44</v>
+        <v>119.28</v>
       </c>
       <c r="D40">
         <v>61</v>
       </c>
       <c r="E40">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="F40">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="G40">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H40">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I40">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>2023-09-24 16:17:25</v>
+        <v>2023-09-25 10:35:27</v>
       </c>
       <c r="B41">
-        <v>94.5</v>
+        <v>94.8</v>
       </c>
       <c r="C41">
-        <v>115.44</v>
+        <v>119.28</v>
       </c>
       <c r="D41">
         <v>61</v>
       </c>
       <c r="E41">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="F41">
-        <v>0.15</v>
+        <v>0.26</v>
       </c>
       <c r="G41">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H41">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I41">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>2023-09-24 19:57:31</v>
+        <v>2023-09-25 14:16:49</v>
       </c>
       <c r="B42">
         <v>95</v>
       </c>
       <c r="C42">
-        <v>115.44</v>
+        <v>119.28</v>
       </c>
       <c r="D42">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E42">
         <v>0.33</v>
       </c>
       <c r="F42">
-        <v>0.15</v>
+        <v>0.26</v>
       </c>
       <c r="G42">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H42">
         <v>81</v>
       </c>
       <c r="I42">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>2023-09-24 23:33:16</v>
+        <v>2023-09-25 17:56:37</v>
       </c>
       <c r="B43">
-        <v>94.9</v>
+        <v>95</v>
       </c>
       <c r="C43">
-        <v>115.44</v>
+        <v>119.28</v>
       </c>
       <c r="D43">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E43">
         <v>0.33</v>
@@ -1464,7 +1464,7 @@
         <v>0.15</v>
       </c>
       <c r="G43">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H43">
         <v>81</v>
@@ -1475,16 +1475,16 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2023-09-25 03:10:28</v>
+        <v>2023-09-25 21:35:36</v>
       </c>
       <c r="B44">
-        <v>94.9</v>
+        <v>95</v>
       </c>
       <c r="C44">
         <v>119.28</v>
       </c>
       <c r="D44">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E44">
         <v>0.33</v>
@@ -1493,39 +1493,39 @@
         <v>0.15</v>
       </c>
       <c r="G44">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H44">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I44">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2023-09-25 03:17:27</v>
+        <v>2023-09-26 01:11:44</v>
       </c>
       <c r="B45">
-        <v>94.9</v>
+        <v>95</v>
       </c>
       <c r="C45">
         <v>119.28</v>
       </c>
       <c r="D45">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E45">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="F45">
-        <v>0.15</v>
+        <v>0.27</v>
       </c>
       <c r="G45">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H45">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>6</v>
@@ -1533,28 +1533,28 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2023-09-25 06:56:01</v>
+        <v>2023-09-26 04:49:18</v>
       </c>
       <c r="B46">
-        <v>94.9</v>
+        <v>95.5</v>
       </c>
       <c r="C46">
-        <v>119.28</v>
+        <v>104</v>
       </c>
       <c r="D46">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E46">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="F46">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="G46">
         <v>23</v>
       </c>
       <c r="H46">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>6</v>
@@ -1562,16 +1562,16 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2023-09-25 10:35:27</v>
+        <v>2023-09-26 08:28:37</v>
       </c>
       <c r="B47">
-        <v>94.8</v>
+        <v>95.5</v>
       </c>
       <c r="C47">
-        <v>119.28</v>
+        <v>104</v>
       </c>
       <c r="D47">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E47">
         <v>0.33</v>
@@ -1583,7 +1583,7 @@
         <v>23</v>
       </c>
       <c r="H47">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>6</v>
@@ -1591,16 +1591,16 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>2023-09-25 14:16:49</v>
+        <v>2023-09-26 12:05:58</v>
       </c>
       <c r="B48">
         <v>95</v>
       </c>
       <c r="C48">
-        <v>119.28</v>
+        <v>104</v>
       </c>
       <c r="D48">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E48">
         <v>0.33</v>
@@ -1612,7 +1612,7 @@
         <v>23</v>
       </c>
       <c r="H48">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I48">
         <v>6</v>
@@ -1620,132 +1620,132 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>2023-09-25 17:56:37</v>
+        <v>2023-09-26 15:47:56</v>
       </c>
       <c r="B49">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C49">
-        <v>119.28</v>
+        <v>104</v>
       </c>
       <c r="D49">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E49">
         <v>0.33</v>
       </c>
       <c r="F49">
-        <v>0.15</v>
+        <v>0.26</v>
       </c>
       <c r="G49">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H49">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I49">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>2023-09-25 21:35:36</v>
+        <v>2023-09-26 19:28:03</v>
       </c>
       <c r="B50">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C50">
-        <v>119.28</v>
+        <v>104</v>
       </c>
       <c r="D50">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E50">
         <v>0.33</v>
       </c>
       <c r="F50">
-        <v>0.15</v>
+        <v>0.26</v>
       </c>
       <c r="G50">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H50">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I50">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>2023-09-26 01:11:44</v>
+        <v>2023-09-26 23:09:02</v>
       </c>
       <c r="B51">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C51">
-        <v>119.28</v>
+        <v>104</v>
       </c>
       <c r="D51">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E51">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="F51">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="G51">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H51">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I51">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>2023-09-26 04:49:18</v>
+        <v>2023-09-27 02:47:19</v>
       </c>
       <c r="B52">
-        <v>95.5</v>
+        <v>93</v>
       </c>
       <c r="C52">
-        <v>104</v>
+        <v>120.45</v>
       </c>
       <c r="D52">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E52">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="F52">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="G52">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H52">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I52">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>2023-09-26 08:28:37</v>
+        <v>2023-09-27 06:28:37</v>
       </c>
       <c r="B53">
-        <v>95.5</v>
+        <v>93</v>
       </c>
       <c r="C53">
-        <v>104</v>
+        <v>120.45</v>
       </c>
       <c r="D53">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E53">
         <v>0.33</v>
@@ -1754,27 +1754,27 @@
         <v>0.26</v>
       </c>
       <c r="G53">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H53">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I53">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>2023-09-26 12:05:58</v>
+        <v>2023-09-27 10:08:47</v>
       </c>
       <c r="B54">
-        <v>95</v>
+        <v>92.8</v>
       </c>
       <c r="C54">
-        <v>104</v>
+        <v>120.45</v>
       </c>
       <c r="D54">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E54">
         <v>0.33</v>
@@ -1783,27 +1783,27 @@
         <v>0.26</v>
       </c>
       <c r="G54">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H54">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I54">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>2023-09-26 15:47:56</v>
+        <v>2023-09-27 13:44:26</v>
       </c>
       <c r="B55">
-        <v>94</v>
+        <v>92.8</v>
       </c>
       <c r="C55">
-        <v>104</v>
+        <v>120.45</v>
       </c>
       <c r="D55">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E55">
         <v>0.33</v>
@@ -1812,39 +1812,39 @@
         <v>0.26</v>
       </c>
       <c r="G55">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H55">
         <v>84</v>
       </c>
       <c r="I55">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>2023-09-26 19:28:03</v>
+        <v>2023-09-27 17:20:27</v>
       </c>
       <c r="B56">
-        <v>93</v>
+        <v>92.8</v>
       </c>
       <c r="C56">
-        <v>104</v>
+        <v>120.45</v>
       </c>
       <c r="D56">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E56">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="F56">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="G56">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H56">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I56">
         <v>7</v>
@@ -1852,39 +1852,39 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>2023-09-26 23:09:02</v>
+        <v>2023-09-27 20:59:05</v>
       </c>
       <c r="B57">
-        <v>93</v>
+        <v>92.8</v>
       </c>
       <c r="C57">
-        <v>104</v>
+        <v>120.45</v>
       </c>
       <c r="D57">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E57">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="F57">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="G57">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H57">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I57">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>2023-09-27 02:47:19</v>
+        <v>2023-09-28 00:38:38</v>
       </c>
       <c r="B58">
-        <v>93</v>
+        <v>92.7</v>
       </c>
       <c r="C58">
         <v>120.45</v>
@@ -1893,16 +1893,16 @@
         <v>69</v>
       </c>
       <c r="E58">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="F58">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="G58">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H58">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I58">
         <v>7</v>
@@ -1910,28 +1910,28 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>2023-09-27 06:28:37</v>
+        <v>2023-09-28 04:18:38</v>
       </c>
       <c r="B59">
-        <v>93</v>
+        <v>92.7</v>
       </c>
       <c r="C59">
-        <v>120.45</v>
+        <v>117</v>
       </c>
       <c r="D59">
         <v>69</v>
       </c>
       <c r="E59">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="F59">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="G59">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H59">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I59">
         <v>7</v>
@@ -1939,28 +1939,28 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>2023-09-27 10:08:47</v>
+        <v>2023-09-28 07:58:12</v>
       </c>
       <c r="B60">
-        <v>92.8</v>
+        <v>92</v>
       </c>
       <c r="C60">
-        <v>120.45</v>
+        <v>117</v>
       </c>
       <c r="D60">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E60">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="F60">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="G60">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H60">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I60">
         <v>7</v>
@@ -1968,25 +1968,25 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>2023-09-27 13:44:26</v>
+        <v>2023-09-28 11:38:28</v>
       </c>
       <c r="B61">
-        <v>92.8</v>
+        <v>92</v>
       </c>
       <c r="C61">
-        <v>120.45</v>
+        <v>117</v>
       </c>
       <c r="D61">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E61">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="F61">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="G61">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H61">
         <v>84</v>
@@ -1997,16 +1997,16 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>2023-09-27 17:20:27</v>
+        <v>2023-09-28 15:14:57</v>
       </c>
       <c r="B62">
-        <v>92.8</v>
+        <v>92</v>
       </c>
       <c r="C62">
-        <v>120.45</v>
+        <v>117</v>
       </c>
       <c r="D62">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E62">
         <v>0.32</v>
@@ -2015,27 +2015,27 @@
         <v>0.25</v>
       </c>
       <c r="G62">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H62">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I62">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>2023-09-27 20:59:05</v>
+        <v>2023-09-28 18:50:34</v>
       </c>
       <c r="B63">
-        <v>92.8</v>
+        <v>91.9</v>
       </c>
       <c r="C63">
-        <v>120.45</v>
+        <v>117</v>
       </c>
       <c r="D63">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E63">
         <v>0.32</v>
@@ -2044,126 +2044,126 @@
         <v>0.25</v>
       </c>
       <c r="G63">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H63">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I63">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>2023-09-28 00:38:38</v>
+        <v>2023-09-28 22:28:29</v>
       </c>
       <c r="B64">
-        <v>92.7</v>
+        <v>92</v>
       </c>
       <c r="C64">
-        <v>120.45</v>
+        <v>117</v>
       </c>
       <c r="D64">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E64">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="F64">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="G64">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H64">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I64">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>2023-09-28 04:18:38</v>
+        <v>2023-09-29 02:07:37</v>
       </c>
       <c r="B65">
-        <v>92.7</v>
+        <v>92.9</v>
       </c>
       <c r="C65">
-        <v>117</v>
+        <v>106.67</v>
       </c>
       <c r="D65">
         <v>69</v>
       </c>
       <c r="E65">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="F65">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="G65">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H65">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I65">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>2023-09-28 07:58:12</v>
+        <v>2023-09-29 05:42:47</v>
       </c>
       <c r="B66">
-        <v>92</v>
+        <v>92.9</v>
       </c>
       <c r="C66">
-        <v>117</v>
+        <v>106.67</v>
       </c>
       <c r="D66">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E66">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="F66">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="G66">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H66">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I66">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>2023-09-28 11:38:28</v>
+        <v>2023-09-29 05:49:33</v>
       </c>
       <c r="B67">
-        <v>92</v>
+        <v>92.9</v>
       </c>
       <c r="C67">
-        <v>117</v>
+        <v>106.67</v>
       </c>
       <c r="D67">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E67">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="F67">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="G67">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H67">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>6</v>
@@ -2171,97 +2171,97 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>2023-09-28 15:14:57</v>
+        <v>2023-09-29 09:30:01</v>
       </c>
       <c r="B68">
-        <v>92</v>
+        <v>92.9</v>
       </c>
       <c r="C68">
-        <v>117</v>
+        <v>106.67</v>
       </c>
       <c r="D68">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E68">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="F68">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="G68">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H68">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I68">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>2023-09-28 18:50:34</v>
+        <v>2023-09-29 13:10:28</v>
       </c>
       <c r="B69">
-        <v>91.9</v>
+        <v>92.9</v>
       </c>
       <c r="C69">
-        <v>117</v>
+        <v>106.67</v>
       </c>
       <c r="D69">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E69">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="F69">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="G69">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H69">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I69">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>2023-09-28 22:28:29</v>
+        <v>2023-09-29 16:48:48</v>
       </c>
       <c r="B70">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C70">
-        <v>117</v>
+        <v>106.67</v>
       </c>
       <c r="D70">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E70">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="F70">
-        <v>0.24</v>
+        <v>0.15</v>
       </c>
       <c r="G70">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H70">
         <v>83</v>
       </c>
       <c r="I70">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>2023-09-29 02:07:37</v>
+        <v>2023-09-29 20:28:34</v>
       </c>
       <c r="B71">
-        <v>92.9</v>
+        <v>93.9</v>
       </c>
       <c r="C71">
         <v>106.67</v>
@@ -2273,24 +2273,24 @@
         <v>0.3</v>
       </c>
       <c r="F71">
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
       <c r="G71">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H71">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I71">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>2023-09-29 05:42:47</v>
+        <v>2023-09-30 00:08:13</v>
       </c>
       <c r="B72">
-        <v>92.9</v>
+        <v>93.9</v>
       </c>
       <c r="C72">
         <v>106.67</v>
@@ -2308,24 +2308,24 @@
         <v>26</v>
       </c>
       <c r="H72">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I72">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>2023-09-29 05:49:33</v>
+        <v>2023-09-30 03:39:20</v>
       </c>
       <c r="B73">
-        <v>92.9</v>
+        <v>93.9</v>
       </c>
       <c r="C73">
-        <v>106.67</v>
+        <v>126.1</v>
       </c>
       <c r="D73">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E73">
         <v>0.3</v>
@@ -2337,21 +2337,21 @@
         <v>26</v>
       </c>
       <c r="H73">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I73">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>2023-09-29 09:30:01</v>
+        <v>2023-09-30 07:16:17</v>
       </c>
       <c r="B74">
-        <v>92.9</v>
+        <v>93.8</v>
       </c>
       <c r="C74">
-        <v>106.67</v>
+        <v>126.1</v>
       </c>
       <c r="D74">
         <v>69</v>
@@ -2366,24 +2366,24 @@
         <v>26</v>
       </c>
       <c r="H74">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I74">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>2023-09-29 13:10:28</v>
+        <v>2023-09-30 10:53:33</v>
       </c>
       <c r="B75">
-        <v>92.9</v>
+        <v>93.6</v>
       </c>
       <c r="C75">
-        <v>106.67</v>
+        <v>126.1</v>
       </c>
       <c r="D75">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E75">
         <v>0.3</v>
@@ -2392,27 +2392,27 @@
         <v>0.15</v>
       </c>
       <c r="G75">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H75">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="I75">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>2023-09-29 16:48:48</v>
+        <v>2023-09-30 14:32:26</v>
       </c>
       <c r="B76">
-        <v>94</v>
+        <v>93.1</v>
       </c>
       <c r="C76">
-        <v>106.67</v>
+        <v>126.1</v>
       </c>
       <c r="D76">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E76">
         <v>0.3</v>
@@ -2421,27 +2421,27 @@
         <v>0.15</v>
       </c>
       <c r="G76">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H76">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I76">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>2023-09-29 20:28:34</v>
+        <v>2023-09-30 18:13:46</v>
       </c>
       <c r="B77">
-        <v>93.9</v>
+        <v>92.9</v>
       </c>
       <c r="C77">
-        <v>106.67</v>
+        <v>126.1</v>
       </c>
       <c r="D77">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E77">
         <v>0.3</v>
@@ -2453,24 +2453,24 @@
         <v>26</v>
       </c>
       <c r="H77">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="I77">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>2023-09-30 00:08:13</v>
+        <v>2023-09-30 21:56:16</v>
       </c>
       <c r="B78">
-        <v>93.9</v>
+        <v>93.7</v>
       </c>
       <c r="C78">
-        <v>106.67</v>
+        <v>126.1</v>
       </c>
       <c r="D78">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E78">
         <v>0.3</v>
@@ -2482,24 +2482,24 @@
         <v>26</v>
       </c>
       <c r="H78">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I78">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>2023-09-30 03:39:20</v>
+        <v>2023-09-30 22:03:22</v>
       </c>
       <c r="B79">
-        <v>93.9</v>
+        <v>93.7</v>
       </c>
       <c r="C79">
         <v>126.1</v>
       </c>
       <c r="D79">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E79">
         <v>0.3</v>
@@ -2511,18 +2511,18 @@
         <v>26</v>
       </c>
       <c r="H79">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I79">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>2023-09-30 07:16:17</v>
+        <v>2023-10-01 01:42:38</v>
       </c>
       <c r="B80">
-        <v>93.8</v>
+        <v>93.7</v>
       </c>
       <c r="C80">
         <v>126.1</v>
@@ -2540,7 +2540,7 @@
         <v>26</v>
       </c>
       <c r="H80">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I80">
         <v>4</v>
@@ -2548,16 +2548,16 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>2023-09-30 10:53:33</v>
+        <v>2023-10-01 05:19:13</v>
       </c>
       <c r="B81">
-        <v>93.6</v>
+        <v>93.9</v>
       </c>
       <c r="C81">
-        <v>126.1</v>
+        <v>136.16</v>
       </c>
       <c r="D81">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E81">
         <v>0.3</v>
@@ -2566,27 +2566,27 @@
         <v>0.15</v>
       </c>
       <c r="G81">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H81">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I81">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>2023-09-30 14:32:26</v>
+        <v>2023-10-01 08:53:27</v>
       </c>
       <c r="B82">
-        <v>93.1</v>
+        <v>93.9</v>
       </c>
       <c r="C82">
-        <v>126.1</v>
+        <v>136.16</v>
       </c>
       <c r="D82">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E82">
         <v>0.3</v>
@@ -2595,10 +2595,10 @@
         <v>0.15</v>
       </c>
       <c r="G82">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H82">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I82">
         <v>4</v>
@@ -2606,16 +2606,16 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>2023-09-30 18:13:46</v>
+        <v>2023-10-01 12:32:39</v>
       </c>
       <c r="B83">
-        <v>92.9</v>
+        <v>93.9</v>
       </c>
       <c r="C83">
-        <v>126.1</v>
+        <v>136.16</v>
       </c>
       <c r="D83">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E83">
         <v>0.3</v>
@@ -2627,62 +2627,62 @@
         <v>26</v>
       </c>
       <c r="H83">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>2023-09-30 21:56:16</v>
+        <v>2023-10-01 16:12:03</v>
       </c>
       <c r="B84">
-        <v>93.7</v>
+        <v>92.9</v>
       </c>
       <c r="C84">
-        <v>126.1</v>
+        <v>136.16</v>
       </c>
       <c r="D84">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E84">
         <v>0.3</v>
       </c>
       <c r="F84">
-        <v>0.15</v>
+        <v>0.23</v>
       </c>
       <c r="G84">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H84">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="I84">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>2023-09-30 22:03:22</v>
+        <v>2023-10-01 19:52:59</v>
       </c>
       <c r="B85">
-        <v>93.7</v>
+        <v>91.5</v>
       </c>
       <c r="C85">
-        <v>126.1</v>
+        <v>136.16</v>
       </c>
       <c r="D85">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E85">
         <v>0.3</v>
       </c>
       <c r="F85">
-        <v>0.15</v>
+        <v>0.23</v>
       </c>
       <c r="G85">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H85">
         <v>71</v>
@@ -2693,28 +2693,28 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>2023-10-01 01:42:38</v>
+        <v>2023-10-01 23:32:15</v>
       </c>
       <c r="B86">
-        <v>93.7</v>
+        <v>91.5</v>
       </c>
       <c r="C86">
-        <v>126.1</v>
+        <v>136.16</v>
       </c>
       <c r="D86">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E86">
         <v>0.3</v>
       </c>
       <c r="F86">
-        <v>0.15</v>
+        <v>0.23</v>
       </c>
       <c r="G86">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H86">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I86">
         <v>4</v>
@@ -2722,28 +2722,28 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>2023-10-01 05:19:13</v>
+        <v>2023-10-02 03:13:51</v>
       </c>
       <c r="B87">
-        <v>93.9</v>
+        <v>91.9</v>
       </c>
       <c r="C87">
-        <v>136.16</v>
+        <v>132.72</v>
       </c>
       <c r="D87">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E87">
         <v>0.3</v>
       </c>
       <c r="F87">
-        <v>0.15</v>
+        <v>0.23</v>
       </c>
       <c r="G87">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H87">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I87">
         <v>4</v>
@@ -2751,13 +2751,13 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>2023-10-01 08:53:27</v>
+        <v>2023-10-02 06:51:48</v>
       </c>
       <c r="B88">
-        <v>93.9</v>
+        <v>91.9</v>
       </c>
       <c r="C88">
-        <v>136.16</v>
+        <v>132.72</v>
       </c>
       <c r="D88">
         <v>67</v>
@@ -2766,13 +2766,13 @@
         <v>0.3</v>
       </c>
       <c r="F88">
-        <v>0.15</v>
+        <v>0.23</v>
       </c>
       <c r="G88">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H88">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I88">
         <v>4</v>
@@ -2780,13 +2780,13 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>2023-10-01 12:32:39</v>
+        <v>2023-10-02 10:27:30</v>
       </c>
       <c r="B89">
-        <v>93.9</v>
+        <v>91.8</v>
       </c>
       <c r="C89">
-        <v>136.16</v>
+        <v>132.72</v>
       </c>
       <c r="D89">
         <v>67</v>
@@ -2795,13 +2795,13 @@
         <v>0.3</v>
       </c>
       <c r="F89">
-        <v>0.15</v>
+        <v>0.23</v>
       </c>
       <c r="G89">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H89">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I89">
         <v>4</v>
@@ -2809,13 +2809,13 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>2023-10-01 16:12:03</v>
+        <v>2023-10-02 10:31:24</v>
       </c>
       <c r="B90">
-        <v>92.9</v>
+        <v>91.8</v>
       </c>
       <c r="C90">
-        <v>136.16</v>
+        <v>132.72</v>
       </c>
       <c r="D90">
         <v>67</v>
@@ -2830,7 +2830,7 @@
         <v>25</v>
       </c>
       <c r="H90">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I90">
         <v>4</v>
@@ -2838,16 +2838,16 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>2023-10-01 19:52:59</v>
+        <v>2023-10-02 14:07:11</v>
       </c>
       <c r="B91">
-        <v>91.5</v>
+        <v>91.8</v>
       </c>
       <c r="C91">
-        <v>136.16</v>
+        <v>132.72</v>
       </c>
       <c r="D91">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E91">
         <v>0.3</v>
@@ -2856,27 +2856,27 @@
         <v>0.23</v>
       </c>
       <c r="G91">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H91">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I91">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>2023-10-01 23:32:15</v>
+        <v>2023-10-02 17:40:01</v>
       </c>
       <c r="B92">
-        <v>91.5</v>
+        <v>91.8</v>
       </c>
       <c r="C92">
-        <v>136.16</v>
+        <v>132.72</v>
       </c>
       <c r="D92">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E92">
         <v>0.3</v>
@@ -2885,7 +2885,7 @@
         <v>0.23</v>
       </c>
       <c r="G92">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H92">
         <v>72</v>
@@ -2896,7 +2896,7 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>2023-10-02 03:13:51</v>
+        <v>2023-10-02 21:16:00</v>
       </c>
       <c r="B93">
         <v>91.9</v>
@@ -2905,7 +2905,7 @@
         <v>132.72</v>
       </c>
       <c r="D93">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E93">
         <v>0.3</v>
@@ -2914,18 +2914,18 @@
         <v>0.23</v>
       </c>
       <c r="G93">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H93">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I93">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>2023-10-02 06:51:48</v>
+        <v>2023-10-03 00:56:08</v>
       </c>
       <c r="B94">
         <v>91.9</v>
@@ -2934,7 +2934,7 @@
         <v>132.72</v>
       </c>
       <c r="D94">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E94">
         <v>0.3</v>
@@ -2943,27 +2943,27 @@
         <v>0.23</v>
       </c>
       <c r="G94">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H94">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I94">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>2023-10-02 10:27:30</v>
+        <v>2023-10-03 04:32:49</v>
       </c>
       <c r="B95">
-        <v>91.8</v>
+        <v>91.9</v>
       </c>
       <c r="C95">
         <v>132.72</v>
       </c>
       <c r="D95">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E95">
         <v>0.3</v>
@@ -2972,21 +2972,21 @@
         <v>0.23</v>
       </c>
       <c r="G95">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H95">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I95">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>2023-10-02 10:31:24</v>
+        <v>2023-10-03 08:16:39</v>
       </c>
       <c r="B96">
-        <v>91.8</v>
+        <v>91.9</v>
       </c>
       <c r="C96">
         <v>132.72</v>
@@ -3001,27 +3001,27 @@
         <v>0.23</v>
       </c>
       <c r="G96">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H96">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I96">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>2023-10-02 14:07:11</v>
+        <v>2023-10-03 11:54:37</v>
       </c>
       <c r="B97">
-        <v>91.8</v>
+        <v>91.9</v>
       </c>
       <c r="C97">
         <v>132.72</v>
       </c>
       <c r="D97">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E97">
         <v>0.3</v>
@@ -3030,27 +3030,27 @@
         <v>0.23</v>
       </c>
       <c r="G97">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H97">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I97">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>2023-10-02 17:40:01</v>
+        <v>2023-10-03 15:36:34</v>
       </c>
       <c r="B98">
-        <v>91.8</v>
+        <v>91.9</v>
       </c>
       <c r="C98">
         <v>132.72</v>
       </c>
       <c r="D98">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E98">
         <v>0.3</v>
@@ -3059,18 +3059,18 @@
         <v>0.23</v>
       </c>
       <c r="G98">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H98">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I98">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>2023-10-02 21:16:00</v>
+        <v>2023-10-03 19:10:45</v>
       </c>
       <c r="B99">
         <v>91.9</v>
@@ -3079,7 +3079,7 @@
         <v>132.72</v>
       </c>
       <c r="D99">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E99">
         <v>0.3</v>
@@ -3094,12 +3094,12 @@
         <v>74</v>
       </c>
       <c r="I99">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>2023-10-03 00:56:08</v>
+        <v>2023-10-03 22:47:33</v>
       </c>
       <c r="B100">
         <v>91.9</v>
@@ -3108,7 +3108,7 @@
         <v>132.72</v>
       </c>
       <c r="D100">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E100">
         <v>0.3</v>
@@ -3120,24 +3120,24 @@
         <v>24</v>
       </c>
       <c r="H100">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I100">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>2023-10-03 04:32:49</v>
+        <v>2023-10-04 02:27:34</v>
       </c>
       <c r="B101">
         <v>91.9</v>
       </c>
       <c r="C101">
-        <v>132.72</v>
+        <v>132.34</v>
       </c>
       <c r="D101">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E101">
         <v>0.3</v>
@@ -3146,68 +3146,68 @@
         <v>0.23</v>
       </c>
       <c r="G101">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H101">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I101">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>2023-10-03 08:16:39</v>
+        <v>2023-10-04 06:04:56</v>
       </c>
       <c r="B102">
         <v>91.9</v>
       </c>
       <c r="C102">
-        <v>132.72</v>
+        <v>132.34</v>
       </c>
       <c r="D102">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E102">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="F102">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="G102">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H102">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I102">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>2023-10-03 11:54:37</v>
+        <v>2023-10-04 09:47:39</v>
       </c>
       <c r="B103">
-        <v>91.9</v>
+        <v>91.8</v>
       </c>
       <c r="C103">
-        <v>132.72</v>
+        <v>132.34</v>
       </c>
       <c r="D103">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E103">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="F103">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="G103">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H103">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I103">
         <v>5</v>
@@ -3215,28 +3215,28 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>2023-10-03 15:36:34</v>
+        <v>2023-10-04 13:26:45</v>
       </c>
       <c r="B104">
-        <v>91.9</v>
+        <v>91.8</v>
       </c>
       <c r="C104">
-        <v>132.72</v>
+        <v>132.34</v>
       </c>
       <c r="D104">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E104">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="F104">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="G104">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H104">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I104">
         <v>5</v>
@@ -3244,28 +3244,28 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>2023-10-03 19:10:45</v>
+        <v>2023-10-04 17:06:50</v>
       </c>
       <c r="B105">
-        <v>91.9</v>
+        <v>91.6</v>
       </c>
       <c r="C105">
-        <v>132.72</v>
+        <v>132.34</v>
       </c>
       <c r="D105">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E105">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="F105">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="G105">
         <v>24</v>
       </c>
       <c r="H105">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I105">
         <v>5</v>
@@ -3273,28 +3273,28 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>2023-10-03 22:47:33</v>
+        <v>2023-10-04 20:46:38</v>
       </c>
       <c r="B106">
-        <v>91.9</v>
+        <v>91.5</v>
       </c>
       <c r="C106">
-        <v>132.72</v>
+        <v>132.34</v>
       </c>
       <c r="D106">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E106">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="F106">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="G106">
         <v>24</v>
       </c>
       <c r="H106">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I106">
         <v>5</v>
@@ -3302,45 +3302,45 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>2023-10-04 02:27:34</v>
+        <v>2023-10-05 00:29:36</v>
       </c>
       <c r="B107">
-        <v>91.9</v>
+        <v>91.5</v>
       </c>
       <c r="C107">
         <v>132.34</v>
       </c>
       <c r="D107">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E107">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="F107">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="G107">
         <v>23</v>
       </c>
       <c r="H107">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I107">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>2023-10-04 06:04:56</v>
+        <v>2023-10-05 00:34:47</v>
       </c>
       <c r="B108">
-        <v>91.9</v>
+        <v>91.5</v>
       </c>
       <c r="C108">
         <v>132.34</v>
       </c>
       <c r="D108">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E108">
         <v>0.28</v>
@@ -3349,27 +3349,27 @@
         <v>0.22</v>
       </c>
       <c r="G108">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H108">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I108">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>2023-10-04 09:47:39</v>
+        <v>2023-10-05 04:13:06</v>
       </c>
       <c r="B109">
-        <v>91.8</v>
+        <v>91.5</v>
       </c>
       <c r="C109">
-        <v>132.34</v>
+        <v>132.01</v>
       </c>
       <c r="D109">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E109">
         <v>0.28</v>
@@ -3378,27 +3378,27 @@
         <v>0.22</v>
       </c>
       <c r="G109">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H109">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I109">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>2023-10-04 13:26:45</v>
+        <v>2023-10-05 07:45:16</v>
       </c>
       <c r="B110">
-        <v>91.8</v>
+        <v>91.5</v>
       </c>
       <c r="C110">
-        <v>132.34</v>
+        <v>132.01</v>
       </c>
       <c r="D110">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E110">
         <v>0.28</v>
@@ -3410,24 +3410,24 @@
         <v>23</v>
       </c>
       <c r="H110">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I110">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>2023-10-04 17:06:50</v>
+        <v>2023-10-05 11:26:33</v>
       </c>
       <c r="B111">
-        <v>91.6</v>
+        <v>91.5</v>
       </c>
       <c r="C111">
-        <v>132.34</v>
+        <v>132.01</v>
       </c>
       <c r="D111">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E111">
         <v>0.28</v>
@@ -3436,27 +3436,27 @@
         <v>0.22</v>
       </c>
       <c r="G111">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H111">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I111">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>2023-10-04 20:46:38</v>
+        <v>2023-10-05 15:06:35</v>
       </c>
       <c r="B112">
-        <v>91.5</v>
+        <v>91.4</v>
       </c>
       <c r="C112">
-        <v>132.34</v>
+        <v>132.01</v>
       </c>
       <c r="D112">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E112">
         <v>0.28</v>
@@ -3465,27 +3465,27 @@
         <v>0.22</v>
       </c>
       <c r="G112">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H112">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I112">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>2023-10-05 00:29:36</v>
+        <v>2023-10-05 18:45:00</v>
       </c>
       <c r="B113">
-        <v>91.5</v>
+        <v>91.2</v>
       </c>
       <c r="C113">
-        <v>132.34</v>
+        <v>132.01</v>
       </c>
       <c r="D113">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E113">
         <v>0.28</v>
@@ -3494,27 +3494,27 @@
         <v>0.22</v>
       </c>
       <c r="G113">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H113">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I113">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>2023-10-05 00:34:47</v>
+        <v>2023-10-05 22:25:25</v>
       </c>
       <c r="B114">
-        <v>91.5</v>
+        <v>90</v>
       </c>
       <c r="C114">
-        <v>132.34</v>
+        <v>132.01</v>
       </c>
       <c r="D114">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E114">
         <v>0.28</v>
@@ -3523,126 +3523,126 @@
         <v>0.22</v>
       </c>
       <c r="G114">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H114">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I114">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>2023-10-05 04:13:06</v>
+        <v>2023-10-06 03:33:51</v>
       </c>
       <c r="B115">
-        <v>91.5</v>
+        <v>89.8</v>
       </c>
       <c r="C115">
-        <v>132.01</v>
+        <v>129.54</v>
       </c>
       <c r="D115">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E115">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="F115">
         <v>0.22</v>
       </c>
       <c r="G115">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H115">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I115">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>2023-10-05 07:45:16</v>
+        <v>2023-10-06 08:43:51</v>
       </c>
       <c r="B116">
-        <v>91.5</v>
+        <v>89.8</v>
       </c>
       <c r="C116">
-        <v>132.01</v>
+        <v>129.54</v>
       </c>
       <c r="D116">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E116">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
       <c r="F116">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="G116">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H116">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I116">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>2023-10-05 11:26:33</v>
+        <v>2023-10-06 13:53:50</v>
       </c>
       <c r="B117">
-        <v>91.5</v>
+        <v>88</v>
       </c>
       <c r="C117">
-        <v>132.01</v>
+        <v>129.54</v>
       </c>
       <c r="D117">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E117">
-        <v>0.28</v>
+        <v>0.23</v>
       </c>
       <c r="F117">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="G117">
         <v>23</v>
       </c>
       <c r="H117">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I117">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>2023-10-05 15:06:35</v>
+        <v>2023-10-06 19:03:50</v>
       </c>
       <c r="B118">
-        <v>91.4</v>
+        <v>88</v>
       </c>
       <c r="C118">
-        <v>132.01</v>
+        <v>129.54</v>
       </c>
       <c r="D118">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E118">
-        <v>0.28</v>
+        <v>0.22</v>
       </c>
       <c r="F118">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="G118">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H118">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I118">
         <v>6</v>
@@ -3650,144 +3650,144 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>2023-10-05 18:45:00</v>
+        <v>2023-10-07 00:13:50</v>
       </c>
       <c r="B119">
-        <v>91.2</v>
+        <v>87.9</v>
       </c>
       <c r="C119">
-        <v>132.01</v>
+        <v>129.54</v>
       </c>
       <c r="D119">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E119">
-        <v>0.28</v>
+        <v>0.22</v>
       </c>
       <c r="F119">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="G119">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H119">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I119">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>2023-10-05 22:25:25</v>
+        <v>2023-10-07 05:23:50</v>
       </c>
       <c r="B120">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C120">
-        <v>132.01</v>
+        <v>131.16</v>
       </c>
       <c r="D120">
         <v>76</v>
       </c>
       <c r="E120">
-        <v>0.28</v>
+        <v>0.21</v>
       </c>
       <c r="F120">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="G120">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H120">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I120">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>2023-10-06 03:33:51</v>
+        <v>2023-10-07 10:34:53</v>
       </c>
       <c r="B121">
-        <v>89.8</v>
+        <v>89</v>
       </c>
       <c r="C121">
-        <v>129.54</v>
+        <v>131.16</v>
       </c>
       <c r="D121">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E121">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="F121">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="G121">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H121">
         <v>82</v>
       </c>
       <c r="I121">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>2023-10-06 08:43:51</v>
+        <v>2023-10-07 15:45:55</v>
       </c>
       <c r="B122">
-        <v>89.8</v>
+        <v>88.9</v>
       </c>
       <c r="C122">
-        <v>129.54</v>
+        <v>131.16</v>
       </c>
       <c r="D122">
         <v>77</v>
       </c>
       <c r="E122">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="F122">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="G122">
         <v>22</v>
       </c>
       <c r="H122">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I122">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>2023-10-06 13:53:50</v>
+        <v>2023-10-07 20:54:26</v>
       </c>
       <c r="B123">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C123">
-        <v>129.54</v>
+        <v>131.16</v>
       </c>
       <c r="D123">
         <v>76</v>
       </c>
       <c r="E123">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="F123">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="G123">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H123">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I123">
         <v>5</v>
@@ -3795,28 +3795,28 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>2023-10-06 19:03:50</v>
+        <v>2023-10-08 02:05:17</v>
       </c>
       <c r="B124">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C124">
-        <v>129.54</v>
+        <v>131.11</v>
       </c>
       <c r="D124">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E124">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="F124">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="G124">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H124">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I124">
         <v>6</v>
@@ -3824,13 +3824,13 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>2023-10-07 00:13:50</v>
+        <v>2023-10-08 07:14:22</v>
       </c>
       <c r="B125">
-        <v>87.9</v>
+        <v>89</v>
       </c>
       <c r="C125">
-        <v>129.54</v>
+        <v>131.11</v>
       </c>
       <c r="D125">
         <v>75</v>
@@ -3842,10 +3842,10 @@
         <v>0.17</v>
       </c>
       <c r="G125">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H125">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I125">
         <v>6</v>
@@ -3853,28 +3853,28 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>2023-10-07 05:23:50</v>
+        <v>2023-10-08 12:25:22</v>
       </c>
       <c r="B126">
         <v>89</v>
       </c>
       <c r="C126">
-        <v>131.16</v>
+        <v>131.11</v>
       </c>
       <c r="D126">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E126">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="F126">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="G126">
         <v>23</v>
       </c>
       <c r="H126">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I126">
         <v>6</v>
@@ -3882,28 +3882,28 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>2023-10-07 10:34:53</v>
+        <v>2023-10-08 17:34:31</v>
       </c>
       <c r="B127">
         <v>89</v>
       </c>
       <c r="C127">
-        <v>131.16</v>
+        <v>131.11</v>
       </c>
       <c r="D127">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E127">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="F127">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="G127">
         <v>23</v>
       </c>
       <c r="H127">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I127">
         <v>6</v>
@@ -3911,103 +3911,103 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>2023-10-07 15:45:55</v>
+        <v>2023-10-08 22:44:29</v>
       </c>
       <c r="B128">
-        <v>88.9</v>
+        <v>89</v>
       </c>
       <c r="C128">
-        <v>131.16</v>
+        <v>131.11</v>
       </c>
       <c r="D128">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E128">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="F128">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="G128">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H128">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I128">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>2023-10-07 20:54:26</v>
+        <v>2023-10-09 02:22:33</v>
       </c>
       <c r="B129">
-        <v>89</v>
+        <v>88.9</v>
       </c>
       <c r="C129">
-        <v>131.16</v>
+        <v>136.5</v>
       </c>
       <c r="D129">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E129">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="F129">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="G129">
         <v>21</v>
       </c>
       <c r="H129">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="I129">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>2023-10-08 02:05:17</v>
+        <v>2023-10-09 02:28:38</v>
       </c>
       <c r="B130">
-        <v>89</v>
+        <v>88.9</v>
       </c>
       <c r="C130">
-        <v>131.11</v>
+        <v>136.5</v>
       </c>
       <c r="D130">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E130">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="F130">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="G130">
         <v>21</v>
       </c>
       <c r="H130">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I130">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>2023-10-08 07:14:22</v>
+        <v>2023-10-09 06:07:11</v>
       </c>
       <c r="B131">
-        <v>89</v>
+        <v>88.9</v>
       </c>
       <c r="C131">
-        <v>131.11</v>
+        <v>136.5</v>
       </c>
       <c r="D131">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E131">
         <v>0.22</v>
@@ -4019,24 +4019,24 @@
         <v>21</v>
       </c>
       <c r="H131">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I131">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>2023-10-08 12:25:22</v>
+        <v>2023-10-09 09:43:59</v>
       </c>
       <c r="B132">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C132">
-        <v>131.11</v>
+        <v>136.5</v>
       </c>
       <c r="D132">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E132">
         <v>0.22</v>
@@ -4045,27 +4045,27 @@
         <v>0.17</v>
       </c>
       <c r="G132">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H132">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I132">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>2023-10-08 17:34:31</v>
+        <v>2023-10-09 13:20:26</v>
       </c>
       <c r="B133">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C133">
-        <v>131.11</v>
+        <v>136.5</v>
       </c>
       <c r="D133">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E133">
         <v>0.22</v>
@@ -4074,24 +4074,24 @@
         <v>0.17</v>
       </c>
       <c r="G133">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H133">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I133">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>2023-10-08 22:44:29</v>
+        <v>2023-10-09 17:00:07</v>
       </c>
       <c r="B134">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C134">
-        <v>131.11</v>
+        <v>136.5</v>
       </c>
       <c r="D134">
         <v>75</v>
@@ -4106,47 +4106,47 @@
         <v>21</v>
       </c>
       <c r="H134">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I134">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>2023-10-09 02:22:33</v>
+        <v>2023-10-09 20:36:46</v>
       </c>
       <c r="B135">
-        <v>88.9</v>
+        <v>89.5</v>
       </c>
       <c r="C135">
         <v>136.5</v>
       </c>
       <c r="D135">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E135">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="F135">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="G135">
         <v>21</v>
       </c>
       <c r="H135">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I135">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>2023-10-09 02:28:38</v>
+        <v>2023-10-10 00:13:20</v>
       </c>
       <c r="B136">
-        <v>88.9</v>
+        <v>89.5</v>
       </c>
       <c r="C136">
         <v>136.5</v>
@@ -4155,16 +4155,16 @@
         <v>73</v>
       </c>
       <c r="E136">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="F136">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="G136">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H136">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I136">
         <v>8</v>
@@ -4172,10 +4172,10 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>2023-10-09 06:07:11</v>
+        <v>2023-10-10 03:52:10</v>
       </c>
       <c r="B137">
-        <v>88.9</v>
+        <v>89.5</v>
       </c>
       <c r="C137">
         <v>136.5</v>
@@ -4184,16 +4184,16 @@
         <v>73</v>
       </c>
       <c r="E137">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="F137">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="G137">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H137">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I137">
         <v>8</v>
@@ -4201,10 +4201,10 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>2023-10-09 09:43:59</v>
+        <v>2023-10-10 07:32:54</v>
       </c>
       <c r="B138">
-        <v>88</v>
+        <v>89.5</v>
       </c>
       <c r="C138">
         <v>136.5</v>
@@ -4213,16 +4213,16 @@
         <v>73</v>
       </c>
       <c r="E138">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="F138">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="G138">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H138">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I138">
         <v>8</v>
@@ -4230,28 +4230,28 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>2023-10-09 13:20:26</v>
+        <v>2023-10-10 11:13:09</v>
       </c>
       <c r="B139">
-        <v>88</v>
+        <v>89.5</v>
       </c>
       <c r="C139">
         <v>136.5</v>
       </c>
       <c r="D139">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E139">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="F139">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="G139">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H139">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I139">
         <v>8</v>
@@ -4259,25 +4259,25 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>2023-10-09 17:00:07</v>
+        <v>2023-10-10 11:18:24</v>
       </c>
       <c r="B140">
-        <v>88</v>
+        <v>89.5</v>
       </c>
       <c r="C140">
         <v>136.5</v>
       </c>
       <c r="D140">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E140">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="F140">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="G140">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H140">
         <v>81</v>
@@ -4288,7 +4288,7 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>2023-10-09 20:36:46</v>
+        <v>2023-10-10 14:59:07</v>
       </c>
       <c r="B141">
         <v>89.5</v>
@@ -4297,27 +4297,27 @@
         <v>136.5</v>
       </c>
       <c r="D141">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E141">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="F141">
         <v>0.16</v>
       </c>
       <c r="G141">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H141">
         <v>81</v>
       </c>
       <c r="I141">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>2023-10-10 00:13:20</v>
+        <v>2023-10-10 18:37:18</v>
       </c>
       <c r="B142">
         <v>89.5</v>
@@ -4338,24 +4338,24 @@
         <v>22</v>
       </c>
       <c r="H142">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I142">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>2023-10-10 03:52:10</v>
+        <v>2023-10-10 22:09:29</v>
       </c>
       <c r="B143">
-        <v>89.5</v>
+        <v>90</v>
       </c>
       <c r="C143">
         <v>136.5</v>
       </c>
       <c r="D143">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E143">
         <v>0.2</v>
@@ -4364,7 +4364,7 @@
         <v>0.16</v>
       </c>
       <c r="G143">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H143">
         <v>81</v>
@@ -4375,10 +4375,10 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>2023-10-10 07:32:54</v>
+        <v>2023-10-11 01:49:30</v>
       </c>
       <c r="B144">
-        <v>89.5</v>
+        <v>90</v>
       </c>
       <c r="C144">
         <v>136.5</v>
@@ -4393,27 +4393,27 @@
         <v>0.16</v>
       </c>
       <c r="G144">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H144">
         <v>81</v>
       </c>
       <c r="I144">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>2023-10-10 11:13:09</v>
+        <v>2023-10-11 05:29:57</v>
       </c>
       <c r="B145">
-        <v>89.5</v>
+        <v>90</v>
       </c>
       <c r="C145">
-        <v>136.5</v>
+        <v>129.81</v>
       </c>
       <c r="D145">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E145">
         <v>0.2</v>
@@ -4422,24 +4422,24 @@
         <v>0.16</v>
       </c>
       <c r="G145">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H145">
         <v>81</v>
       </c>
       <c r="I145">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>2023-10-10 11:18:24</v>
+        <v>2023-10-11 09:07:59</v>
       </c>
       <c r="B146">
-        <v>89.5</v>
+        <v>90</v>
       </c>
       <c r="C146">
-        <v>136.5</v>
+        <v>129.81</v>
       </c>
       <c r="D146">
         <v>73</v>
@@ -4451,27 +4451,27 @@
         <v>0.16</v>
       </c>
       <c r="G146">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H146">
         <v>81</v>
       </c>
       <c r="I146">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>2023-10-10 14:59:07</v>
+        <v>2023-10-11 12:45:43</v>
       </c>
       <c r="B147">
-        <v>89.5</v>
+        <v>90</v>
       </c>
       <c r="C147">
-        <v>136.5</v>
+        <v>129.81</v>
       </c>
       <c r="D147">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E147">
         <v>0.2</v>
@@ -4480,27 +4480,27 @@
         <v>0.16</v>
       </c>
       <c r="G147">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H147">
         <v>81</v>
       </c>
       <c r="I147">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>2023-10-10 18:37:18</v>
+        <v>2023-10-11 16:23:35</v>
       </c>
       <c r="B148">
-        <v>89.5</v>
+        <v>90</v>
       </c>
       <c r="C148">
-        <v>136.5</v>
+        <v>129.81</v>
       </c>
       <c r="D148">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E148">
         <v>0.2</v>
@@ -4509,33 +4509,33 @@
         <v>0.16</v>
       </c>
       <c r="G148">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H148">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I148">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>2023-10-10 22:09:29</v>
+        <v>2023-10-11 20:03:13</v>
       </c>
       <c r="B149">
         <v>90</v>
       </c>
       <c r="C149">
-        <v>136.5</v>
+        <v>129.81</v>
       </c>
       <c r="D149">
         <v>72</v>
       </c>
       <c r="E149">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="F149">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="G149">
         <v>23</v>
@@ -4544,27 +4544,27 @@
         <v>81</v>
       </c>
       <c r="I149">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>2023-10-11 01:49:30</v>
+        <v>2023-10-11 23:42:21</v>
       </c>
       <c r="B150">
         <v>90</v>
       </c>
       <c r="C150">
-        <v>136.5</v>
+        <v>129.81</v>
       </c>
       <c r="D150">
         <v>73</v>
       </c>
       <c r="E150">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="F150">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="G150">
         <v>23</v>
@@ -4578,190 +4578,190 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>2023-10-11 05:29:57</v>
+        <v>2023-10-12 04:46:03</v>
       </c>
       <c r="B151">
         <v>90</v>
       </c>
       <c r="C151">
-        <v>129.81</v>
+        <v>129.03</v>
       </c>
       <c r="D151">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E151">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="F151">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="G151">
         <v>23</v>
       </c>
       <c r="H151">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I151">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>2023-10-11 09:07:59</v>
+        <v>2023-10-12 09:56:10</v>
       </c>
       <c r="B152">
         <v>90</v>
       </c>
       <c r="C152">
-        <v>129.81</v>
+        <v>129.03</v>
       </c>
       <c r="D152">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E152">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="F152">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="G152">
         <v>23</v>
       </c>
       <c r="H152">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I152">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>2023-10-11 12:45:43</v>
+        <v>2023-10-12 15:05:51</v>
       </c>
       <c r="B153">
         <v>90</v>
       </c>
       <c r="C153">
-        <v>129.81</v>
+        <v>129.03</v>
       </c>
       <c r="D153">
         <v>71</v>
       </c>
       <c r="E153">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="F153">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="G153">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H153">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I153">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>2023-10-11 16:23:35</v>
+        <v>2023-10-12 20:15:49</v>
       </c>
       <c r="B154">
         <v>90</v>
       </c>
       <c r="C154">
-        <v>129.81</v>
+        <v>129.03</v>
       </c>
       <c r="D154">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E154">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="F154">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="G154">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H154">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I154">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>2023-10-11 20:03:13</v>
+        <v>2023-10-13 01:25:49</v>
       </c>
       <c r="B155">
         <v>90</v>
       </c>
       <c r="C155">
-        <v>129.81</v>
+        <v>129.03</v>
       </c>
       <c r="D155">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E155">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="F155">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="G155">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H155">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I155">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>2023-10-11 23:42:21</v>
+        <v>2023-10-13 06:37:29</v>
       </c>
       <c r="B156">
         <v>90</v>
       </c>
       <c r="C156">
-        <v>129.81</v>
+        <v>134.03</v>
       </c>
       <c r="D156">
         <v>73</v>
       </c>
       <c r="E156">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="F156">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="G156">
         <v>23</v>
       </c>
       <c r="H156">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I156">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>2023-10-12 04:46:03</v>
+        <v>2023-10-13 11:47:39</v>
       </c>
       <c r="B157">
         <v>90</v>
       </c>
       <c r="C157">
-        <v>129.03</v>
+        <v>134.03</v>
       </c>
       <c r="D157">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E157">
         <v>0.18</v>
@@ -4781,16 +4781,16 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>2023-10-12 09:56:10</v>
+        <v>2023-10-13 16:55:53</v>
       </c>
       <c r="B158">
-        <v>90</v>
+        <v>91.88</v>
       </c>
       <c r="C158">
-        <v>129.03</v>
+        <v>134.03</v>
       </c>
       <c r="D158">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E158">
         <v>0.18</v>
@@ -4805,21 +4805,21 @@
         <v>83</v>
       </c>
       <c r="I158">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>2023-10-12 15:05:51</v>
+        <v>2023-10-13 22:06:27</v>
       </c>
       <c r="B159">
-        <v>90</v>
+        <v>91.88</v>
       </c>
       <c r="C159">
-        <v>129.03</v>
+        <v>134.03</v>
       </c>
       <c r="D159">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E159">
         <v>0.18</v>
@@ -4839,16 +4839,16 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>2023-10-12 20:15:49</v>
+        <v>2023-10-14 03:17:10</v>
       </c>
       <c r="B160">
-        <v>90</v>
+        <v>91.88</v>
       </c>
       <c r="C160">
-        <v>129.03</v>
+        <v>130.33</v>
       </c>
       <c r="D160">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E160">
         <v>0.18</v>
@@ -4857,27 +4857,27 @@
         <v>0.14</v>
       </c>
       <c r="G160">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H160">
         <v>83</v>
       </c>
       <c r="I160">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>2023-10-13 01:25:49</v>
+        <v>2023-10-14 08:27:00</v>
       </c>
       <c r="B161">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C161">
-        <v>129.03</v>
+        <v>130.33</v>
       </c>
       <c r="D161">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E161">
         <v>0.18</v>
@@ -4886,27 +4886,27 @@
         <v>0.14</v>
       </c>
       <c r="G161">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H161">
         <v>83</v>
       </c>
       <c r="I161">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>2023-10-13 06:37:29</v>
+        <v>2023-10-14 13:37:38</v>
       </c>
       <c r="B162">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C162">
-        <v>134.03</v>
+        <v>130.33</v>
       </c>
       <c r="D162">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E162">
         <v>0.18</v>
@@ -4915,201 +4915,201 @@
         <v>0.14</v>
       </c>
       <c r="G162">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H162">
         <v>83</v>
       </c>
       <c r="I162">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>2023-10-13 11:47:39</v>
+        <v>2023-10-14 18:46:25</v>
       </c>
       <c r="B163">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C163">
-        <v>134.03</v>
+        <v>130.33</v>
       </c>
       <c r="D163">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E163">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="F163">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="G163">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H163">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I163">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>2023-10-13 16:55:53</v>
+        <v>2023-10-14 23:56:25</v>
       </c>
       <c r="B164">
-        <v>91.88</v>
+        <v>93</v>
       </c>
       <c r="C164">
-        <v>134.03</v>
+        <v>130.33</v>
       </c>
       <c r="D164">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E164">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="F164">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="G164">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H164">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I164">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>2023-10-13 22:06:27</v>
+        <v>2023-10-15 05:06:26</v>
       </c>
       <c r="B165">
-        <v>91.88</v>
+        <v>95</v>
       </c>
       <c r="C165">
-        <v>134.03</v>
+        <v>122.39</v>
       </c>
       <c r="D165">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E165">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="F165">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="G165">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H165">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I165">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>2023-10-14 03:17:10</v>
+        <v>2023-10-15 10:16:25</v>
       </c>
       <c r="B166">
-        <v>91.88</v>
+        <v>95</v>
       </c>
       <c r="C166">
-        <v>130.33</v>
+        <v>122.39</v>
       </c>
       <c r="D166">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E166">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="F166">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="G166">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H166">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I166">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>2023-10-14 08:27:00</v>
+        <v>2023-10-15 15:26:25</v>
       </c>
       <c r="B167">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C167">
-        <v>130.33</v>
+        <v>122.39</v>
       </c>
       <c r="D167">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E167">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="F167">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="G167">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H167">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I167">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>2023-10-14 13:37:38</v>
+        <v>2023-10-15 20:36:44</v>
       </c>
       <c r="B168">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C168">
-        <v>130.33</v>
+        <v>122.39</v>
       </c>
       <c r="D168">
         <v>69</v>
       </c>
       <c r="E168">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="F168">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="G168">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H168">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I168">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>2023-10-14 18:46:25</v>
+        <v>2023-10-16 01:46:34</v>
       </c>
       <c r="B169">
         <v>93</v>
       </c>
       <c r="C169">
-        <v>130.33</v>
+        <v>122.39</v>
       </c>
       <c r="D169">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E169">
         <v>0.12</v>
@@ -5121,7 +5121,7 @@
         <v>25</v>
       </c>
       <c r="H169">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I169">
         <v>13</v>
@@ -5129,16 +5129,16 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>2023-10-14 23:56:25</v>
+        <v>2023-10-16 06:56:32</v>
       </c>
       <c r="B170">
         <v>93</v>
       </c>
       <c r="C170">
-        <v>130.33</v>
+        <v>120.51</v>
       </c>
       <c r="D170">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E170">
         <v>0.12</v>
@@ -5147,24 +5147,24 @@
         <v>0.09</v>
       </c>
       <c r="G170">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H170">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I170">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>2023-10-15 05:06:26</v>
+        <v>2023-10-16 12:00:37</v>
       </c>
       <c r="B171">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C171">
-        <v>122.39</v>
+        <v>120.51</v>
       </c>
       <c r="D171">
         <v>70</v>
@@ -5176,10 +5176,10 @@
         <v>0.09</v>
       </c>
       <c r="G171">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H171">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I171">
         <v>13</v>
@@ -5187,16 +5187,16 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>2023-10-15 10:16:25</v>
+        <v>2023-10-16 17:09:48</v>
       </c>
       <c r="B172">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C172">
-        <v>122.39</v>
+        <v>120.51</v>
       </c>
       <c r="D172">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E172">
         <v>0.12</v>
@@ -5205,10 +5205,10 @@
         <v>0.09</v>
       </c>
       <c r="G172">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H172">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I172">
         <v>13</v>
@@ -5216,16 +5216,16 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>2023-10-15 15:26:25</v>
+        <v>2023-10-16 22:19:49</v>
       </c>
       <c r="B173">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C173">
-        <v>122.39</v>
+        <v>120.51</v>
       </c>
       <c r="D173">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E173">
         <v>0.12</v>
@@ -5234,24 +5234,24 @@
         <v>0.09</v>
       </c>
       <c r="G173">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H173">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I173">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>2023-10-15 20:36:44</v>
+        <v>2023-10-17 03:29:49</v>
       </c>
       <c r="B174">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C174">
-        <v>122.39</v>
+        <v>120.51</v>
       </c>
       <c r="D174">
         <v>69</v>
@@ -5263,24 +5263,24 @@
         <v>0.09</v>
       </c>
       <c r="G174">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H174">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I174">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>2023-10-16 01:46:34</v>
+        <v>2023-10-17 08:40:22</v>
       </c>
       <c r="B175">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C175">
-        <v>122.39</v>
+        <v>120.51</v>
       </c>
       <c r="D175">
         <v>69</v>
@@ -5292,216 +5292,216 @@
         <v>0.09</v>
       </c>
       <c r="G175">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H175">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I175">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>2023-10-16 06:56:32</v>
+        <v>2023-10-17 13:49:57</v>
       </c>
       <c r="B176">
-        <v>93</v>
+        <v>91.88</v>
       </c>
       <c r="C176">
         <v>120.51</v>
       </c>
       <c r="D176">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E176">
+        <v>0.14</v>
+      </c>
+      <c r="F176">
         <v>0.12</v>
-      </c>
-      <c r="F176">
-        <v>0.09</v>
       </c>
       <c r="G176">
         <v>25</v>
       </c>
       <c r="H176">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I176">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>2023-10-16 12:00:37</v>
+        <v>2023-10-17 18:59:55</v>
       </c>
       <c r="B177">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C177">
         <v>120.51</v>
       </c>
       <c r="D177">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E177">
+        <v>0.14</v>
+      </c>
+      <c r="F177">
         <v>0.12</v>
-      </c>
-      <c r="F177">
-        <v>0.09</v>
       </c>
       <c r="G177">
         <v>26</v>
       </c>
       <c r="H177">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I177">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>2023-10-16 17:09:48</v>
+        <v>2023-10-18 00:09:55</v>
       </c>
       <c r="B178">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C178">
         <v>120.51</v>
       </c>
       <c r="D178">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E178">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="F178">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="G178">
         <v>27</v>
       </c>
       <c r="H178">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I178">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>2023-10-16 22:19:49</v>
+        <v>2023-10-18 05:19:54</v>
       </c>
       <c r="B179">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C179">
-        <v>120.51</v>
+        <v>129.87</v>
       </c>
       <c r="D179">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E179">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="F179">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="G179">
         <v>27</v>
       </c>
       <c r="H179">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I179">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>2023-10-17 03:29:49</v>
+        <v>2023-10-18 10:31:16</v>
       </c>
       <c r="B180">
-        <v>92</v>
+        <v>91.8</v>
       </c>
       <c r="C180">
-        <v>120.51</v>
+        <v>129.87</v>
       </c>
       <c r="D180">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E180">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="F180">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="G180">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H180">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I180">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>2023-10-17 08:40:22</v>
+        <v>2023-10-18 15:40:06</v>
       </c>
       <c r="B181">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C181">
-        <v>120.51</v>
+        <v>129.87</v>
       </c>
       <c r="D181">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E181">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="F181">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="G181">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H181">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I181">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>2023-10-17 13:49:57</v>
+        <v>2023-10-18 20:50:06</v>
       </c>
       <c r="B182">
-        <v>91.88</v>
+        <v>86</v>
       </c>
       <c r="C182">
-        <v>120.51</v>
+        <v>129.87</v>
       </c>
       <c r="D182">
         <v>70</v>
       </c>
       <c r="E182">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="F182">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="G182">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H182">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I182">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
